--- a/設計書/アバター管理.xlsx
+++ b/設計書/アバター管理.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -392,8 +392,36 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -689,18 +717,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,10 +742,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -730,15 +770,27 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="str">
-        <f>"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES("&amp;A2&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","""&amp;E2&amp;""");"</f>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(1,0,0,0,"hair_back001.png");</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J2" t="str">
+        <f>"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A2&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2&amp;","""&amp;I2&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(1,0,0,0,0,0,0,0,"hair_back001.png");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -751,15 +803,27 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="0">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES("&amp;A3&amp;","&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","""&amp;E3&amp;""");"</f>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(2,0,0,0,"hair_back002.png");</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="0">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A3&amp;","&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","""&amp;I3&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(2,0,0,0,0,0,0,0,"hair_back002.png");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -772,15 +836,27 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(3,0,0,0,"hair_back003.png");</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(3,0,0,0,0,0,0,0,"hair_back003.png");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -793,15 +869,27 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(4,0,0,0,"hair_back004.png");</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(4,0,0,0,0,0,0,0,"hair_back004.png");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -814,15 +902,27 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(5,0,0,0,"hair_back005.png");</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(5,0,0,0,0,0,0,0,"hair_back005.png");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -835,15 +935,27 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(6,0,0,0,"hair_back006.png");</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(6,0,0,0,0,0,0,0,"hair_back006.png");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -856,15 +968,27 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(7,0,0,0,"hair_back007.png");</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(7,0,0,0,0,0,0,0,"hair_back007.png");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -877,15 +1001,27 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(8,0,0,0,"hair_back008.png");</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(8,0,0,0,0,0,0,0,"hair_back008.png");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -898,15 +1034,27 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(9,0,0,0,"hair_back009.png");</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(9,0,0,0,0,0,0,0,"hair_back009.png");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -919,15 +1067,27 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(10,0,0,0,"hair_back010.png");</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(10,0,0,0,0,0,0,0,"hair_back010.png");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -940,15 +1100,27 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(11,1,0,0,"body001.png");</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(11,1,0,0,0,0,0,0,"body001.png");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -961,15 +1133,27 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(12,1,0,0,"body002.png");</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(12,1,0,0,0,0,0,0,"body002.png");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -982,15 +1166,27 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(13,1,0,0,"body003.png");</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(13,1,0,0,0,0,0,0,"body003.png");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1003,15 +1199,27 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(14,1,0,0,"body004.png");</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(14,1,0,0,0,0,0,0,"body004.png");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1024,15 +1232,27 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(15,1,0,0,"body005.png");</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(15,1,0,0,0,0,0,0,"body005.png");</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1045,15 +1265,27 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(16,1,0,0,"body006.png");</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(16,1,0,0,0,0,0,0,"body006.png");</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1066,15 +1298,27 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(17,1,0,0,"body007.png");</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(17,1,0,0,0,0,0,0,"body007.png");</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1087,15 +1331,27 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
         <v>22</v>
       </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(18,1,0,0,"body008.png");</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(18,1,0,0,0,0,0,0,"body008.png");</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1108,15 +1364,27 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
         <v>23</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(19,1,0,0,"body009.png");</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(19,1,0,0,0,0,0,0,"body009.png");</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1129,15 +1397,27 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
         <v>24</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(20,1,0,0,"body010.png");</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(20,1,0,0,0,0,0,0,"body010.png");</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1150,15 +1430,27 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(21,2,0,0,"faceline001.png");</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(21,2,0,0,0,0,0,0,"faceline001.png");</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1171,15 +1463,27 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
         <v>26</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(22,2,0,0,"faceline002.png");</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(22,2,0,0,0,0,0,0,"faceline002.png");</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1192,15 +1496,27 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
         <v>27</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(23,2,0,0,"faceline003.png");</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(23,2,0,0,0,0,0,0,"faceline003.png");</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1213,15 +1529,27 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
         <v>28</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(24,2,0,0,"faceline004.png");</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(24,2,0,0,0,0,0,0,"faceline004.png");</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1234,15 +1562,27 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
         <v>29</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(25,2,0,0,"faceline005.png");</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(25,2,0,0,0,0,0,0,"faceline005.png");</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1255,15 +1595,27 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
         <v>30</v>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(26,2,0,0,"faceline006.png");</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(26,2,0,0,0,0,0,0,"faceline006.png");</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1276,15 +1628,27 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
         <v>31</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(27,2,0,0,"faceline007.png");</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(27,2,0,0,0,0,0,0,"faceline007.png");</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1297,15 +1661,27 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
         <v>32</v>
       </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(28,2,0,0,"faceline008.png");</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(28,2,0,0,0,0,0,0,"faceline008.png");</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1318,15 +1694,27 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
         <v>33</v>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(29,2,0,0,"faceline009.png");</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(29,2,0,0,0,0,0,0,"faceline009.png");</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1339,15 +1727,27 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
         <v>34</v>
       </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(30,2,0,0,"faceline010.png");</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(30,2,0,0,0,0,0,0,"faceline010.png");</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1360,15 +1760,27 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
         <v>35</v>
       </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(31,2,0,0,"faceline011.png");</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(31,2,0,0,0,0,0,0,"faceline011.png");</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1381,15 +1793,27 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
         <v>36</v>
       </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(32,2,0,0,"faceline012.png");</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(32,2,0,0,0,0,0,0,"faceline012.png");</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1402,15 +1826,27 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
         <v>37</v>
       </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(33,3,0,0,"ear001.png");</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(33,3,0,0,0,0,0,0,"ear001.png");</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1423,15 +1859,27 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
         <v>38</v>
       </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(34,3,0,0,"ear002.png");</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(34,3,0,0,0,0,0,0,"ear002.png");</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1444,15 +1892,27 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
         <v>39</v>
       </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(35,3,0,0,"ear003.png");</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(35,3,0,0,0,0,0,0,"ear003.png");</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1465,15 +1925,27 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
         <v>40</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(36,3,0,0,"ear004.png");</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(36,3,0,0,0,0,0,0,"ear004.png");</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1486,15 +1958,27 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
         <v>41</v>
       </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(37,4,0,0,"eyebrows001.png");</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(37,4,0,0,0,0,0,0,"eyebrows001.png");</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1507,15 +1991,27 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
         <v>42</v>
       </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(38,4,0,0,"eyebrows002.png");</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(38,4,0,0,0,0,0,0,"eyebrows002.png");</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1528,15 +2024,27 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
         <v>43</v>
       </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(39,4,0,0,"eyebrows003.png");</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(39,4,0,0,0,0,0,0,"eyebrows003.png");</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1549,15 +2057,27 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
         <v>44</v>
       </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(40,4,0,0,"eyebrows004.png");</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(40,4,0,0,0,0,0,0,"eyebrows004.png");</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1570,15 +2090,27 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
         <v>45</v>
       </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(41,4,0,0,"eyebrows005.png");</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(41,4,0,0,0,0,0,0,"eyebrows005.png");</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1591,15 +2123,27 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
         <v>46</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(42,4,0,0,"eyebrows006.png");</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(42,4,0,0,0,0,0,0,"eyebrows006.png");</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1612,15 +2156,27 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
         <v>47</v>
       </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(43,4,0,0,"eyebrows007.png");</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(43,4,0,0,0,0,0,0,"eyebrows007.png");</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1633,15 +2189,27 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
         <v>48</v>
       </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(44,4,0,0,"eyebrows008.png");</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(44,4,0,0,0,0,0,0,"eyebrows008.png");</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1654,15 +2222,27 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
         <v>49</v>
       </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(45,4,0,0,"eyebrows009.png");</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(45,4,0,0,0,0,0,0,"eyebrows009.png");</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1675,15 +2255,27 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
         <v>50</v>
       </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(46,5,0,0,"eyes001.png");</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(46,5,0,0,0,0,0,0,"eyes001.png");</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1696,15 +2288,27 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
         <v>51</v>
       </c>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(47,5,0,0,"eyes002.png");</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(47,5,0,0,0,0,0,0,"eyes002.png");</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1717,15 +2321,27 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
         <v>52</v>
       </c>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(48,5,0,0,"eyes003.png");</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(48,5,0,0,0,0,0,0,"eyes003.png");</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1738,15 +2354,27 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
         <v>53</v>
       </c>
-      <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(49,5,0,0,"eyes004.png");</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(49,5,0,0,0,0,0,0,"eyes004.png");</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1759,15 +2387,27 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
         <v>54</v>
       </c>
-      <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(50,5,0,0,"eyes005.png");</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(50,5,0,0,0,0,0,0,"eyes005.png");</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1780,15 +2420,27 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
         <v>55</v>
       </c>
-      <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(51,5,0,0,"eyes006.png");</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(51,5,0,0,0,0,0,0,"eyes006.png");</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1801,15 +2453,27 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
         <v>56</v>
       </c>
-      <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(52,5,0,0,"eyes007.png");</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(52,5,0,0,0,0,0,0,"eyes007.png");</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1822,15 +2486,27 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
         <v>57</v>
       </c>
-      <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(53,5,0,0,"eyes008.png");</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(53,5,0,0,0,0,0,0,"eyes008.png");</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1843,15 +2519,27 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
         <v>58</v>
       </c>
-      <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(54,5,0,0,"eyes009.png");</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(54,5,0,0,0,0,0,0,"eyes009.png");</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1864,15 +2552,27 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
         <v>59</v>
       </c>
-      <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(55,5,0,0,"eyes010.png");</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(55,5,0,0,0,0,0,0,"eyes010.png");</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1885,15 +2585,27 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
         <v>60</v>
       </c>
-      <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(56,5,0,0,"eyes011.png");</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(56,5,0,0,0,0,0,0,"eyes011.png");</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1906,15 +2618,27 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
         <v>61</v>
       </c>
-      <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(57,5,0,0,"eyes012.png");</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(57,5,0,0,0,0,0,0,"eyes012.png");</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1927,15 +2651,27 @@
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
         <v>62</v>
       </c>
-      <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(58,5,0,0,"eyes013.png");</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(58,5,0,0,0,0,0,0,"eyes013.png");</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1948,15 +2684,27 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
         <v>63</v>
       </c>
-      <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(59,5,0,0,"eyes014.png");</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(59,5,0,0,0,0,0,0,"eyes014.png");</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1969,15 +2717,27 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
         <v>64</v>
       </c>
-      <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(60,5,0,0,"eyes015.png");</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(60,5,0,0,0,0,0,0,"eyes015.png");</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1990,15 +2750,27 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
         <v>65</v>
       </c>
-      <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(61,5,0,0,"eyes016.png");</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(61,5,0,0,0,0,0,0,"eyes016.png");</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2011,15 +2783,27 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
         <v>66</v>
       </c>
-      <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(62,5,0,0,"eyes017.png");</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(62,5,0,0,0,0,0,0,"eyes017.png");</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2032,15 +2816,27 @@
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
         <v>67</v>
       </c>
-      <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(63,5,0,0,"eyes018.png");</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(63,5,0,0,0,0,0,0,"eyes018.png");</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2053,15 +2849,27 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
         <v>68</v>
       </c>
-      <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(64,5,0,0,"eyes019.png");</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(64,5,0,0,0,0,0,0,"eyes019.png");</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2074,15 +2882,27 @@
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
         <v>69</v>
       </c>
-      <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(65,5,0,0,"eyes020.png");</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(65,5,0,0,0,0,0,0,"eyes020.png");</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2095,15 +2915,27 @@
       <c r="D67">
         <v>0</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
         <v>70</v>
       </c>
-      <c r="F67" t="str">
-        <f t="shared" ref="F67:F102" si="1">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES("&amp;A67&amp;","&amp;B67&amp;","&amp;C67&amp;","&amp;D67&amp;","""&amp;E67&amp;""");"</f>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(66,6,0,0,"nose001.png");</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J102" si="1">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A67&amp;","&amp;B67&amp;","&amp;C67&amp;","&amp;D67&amp;","&amp;E67&amp;","&amp;F67&amp;","&amp;G67&amp;","&amp;H67&amp;","""&amp;I67&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(66,6,0,0,0,0,0,0,"nose001.png");</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2116,15 +2948,27 @@
       <c r="D68">
         <v>0</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
         <v>71</v>
       </c>
-      <c r="F68" t="str">
+      <c r="J68" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(67,6,0,0,"nose002.png");</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(67,6,0,0,0,0,0,0,"nose002.png");</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2137,15 +2981,27 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
         <v>72</v>
       </c>
-      <c r="F69" t="str">
+      <c r="J69" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(68,6,0,0,"nose003.png");</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(68,6,0,0,0,0,0,0,"nose003.png");</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2158,15 +3014,27 @@
       <c r="D70">
         <v>0</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
         <v>73</v>
       </c>
-      <c r="F70" t="str">
+      <c r="J70" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(69,6,0,0,"nose004.png");</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(69,6,0,0,0,0,0,0,"nose004.png");</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2179,15 +3047,27 @@
       <c r="D71">
         <v>0</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
         <v>74</v>
       </c>
-      <c r="F71" t="str">
+      <c r="J71" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(70,6,0,0,"nose005.png");</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(70,6,0,0,0,0,0,0,"nose005.png");</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2200,15 +3080,27 @@
       <c r="D72">
         <v>0</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
         <v>75</v>
       </c>
-      <c r="F72" t="str">
+      <c r="J72" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(71,6,0,0,"nose006.png");</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(71,6,0,0,0,0,0,0,"nose006.png");</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2221,15 +3113,27 @@
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
         <v>76</v>
       </c>
-      <c r="F73" t="str">
+      <c r="J73" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(72,6,0,0,"nose007.png");</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(72,6,0,0,0,0,0,0,"nose007.png");</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2242,15 +3146,27 @@
       <c r="D74">
         <v>0</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
         <v>77</v>
       </c>
-      <c r="F74" t="str">
+      <c r="J74" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(73,6,0,0,"nose008.png");</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(73,6,0,0,0,0,0,0,"nose008.png");</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2263,15 +3179,27 @@
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
         <v>78</v>
       </c>
-      <c r="F75" t="str">
+      <c r="J75" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(74,6,0,0,"nose009.png");</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(74,6,0,0,0,0,0,0,"nose009.png");</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2284,15 +3212,27 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
         <v>79</v>
       </c>
-      <c r="F76" t="str">
+      <c r="J76" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(75,7,0,0,"mouth001.png");</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(75,7,0,0,0,0,0,0,"mouth001.png");</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2305,15 +3245,27 @@
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
         <v>80</v>
       </c>
-      <c r="F77" t="str">
+      <c r="J77" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(76,7,0,0,"mouth002.png");</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(76,7,0,0,0,0,0,0,"mouth002.png");</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2326,15 +3278,27 @@
       <c r="D78">
         <v>0</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
         <v>81</v>
       </c>
-      <c r="F78" t="str">
+      <c r="J78" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(77,7,0,0,"mouth003.png");</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(77,7,0,0,0,0,0,0,"mouth003.png");</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2347,15 +3311,27 @@
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
         <v>82</v>
       </c>
-      <c r="F79" t="str">
+      <c r="J79" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(78,7,0,0,"mouth004.png");</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(78,7,0,0,0,0,0,0,"mouth004.png");</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2368,15 +3344,27 @@
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
         <v>83</v>
       </c>
-      <c r="F80" t="str">
+      <c r="J80" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(79,7,0,0,"mouth005.png");</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(79,7,0,0,0,0,0,0,"mouth005.png");</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2389,15 +3377,27 @@
       <c r="D81">
         <v>0</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
         <v>84</v>
       </c>
-      <c r="F81" t="str">
+      <c r="J81" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(80,7,0,0,"mouth006.png");</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(80,7,0,0,0,0,0,0,"mouth006.png");</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2410,15 +3410,27 @@
       <c r="D82">
         <v>0</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
         <v>85</v>
       </c>
-      <c r="F82" t="str">
+      <c r="J82" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(81,7,0,0,"mouth007.png");</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(81,7,0,0,0,0,0,0,"mouth007.png");</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2431,15 +3443,27 @@
       <c r="D83">
         <v>0</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
         <v>86</v>
       </c>
-      <c r="F83" t="str">
+      <c r="J83" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(82,7,0,0,"mouth008.png");</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(82,7,0,0,0,0,0,0,"mouth008.png");</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2452,15 +3476,27 @@
       <c r="D84">
         <v>0</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
         <v>87</v>
       </c>
-      <c r="F84" t="str">
+      <c r="J84" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(83,7,0,0,"mouth009.png");</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(83,7,0,0,0,0,0,0,"mouth009.png");</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2473,15 +3509,27 @@
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
         <v>88</v>
       </c>
-      <c r="F85" t="str">
+      <c r="J85" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(84,7,0,0,"mouth010.png");</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(84,7,0,0,0,0,0,0,"mouth010.png");</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2494,15 +3542,27 @@
       <c r="D86">
         <v>0</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
         <v>89</v>
       </c>
-      <c r="F86" t="str">
+      <c r="J86" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(85,7,0,0,"mouth011.png");</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(85,7,0,0,0,0,0,0,"mouth011.png");</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2515,15 +3575,27 @@
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
         <v>90</v>
       </c>
-      <c r="F87" t="str">
+      <c r="J87" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(86,7,0,0,"mouth012.png");</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(86,7,0,0,0,0,0,0,"mouth012.png");</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2536,15 +3608,27 @@
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
         <v>91</v>
       </c>
-      <c r="F88" t="str">
+      <c r="J88" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(87,7,0,0,"mouth013.png");</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(87,7,0,0,0,0,0,0,"mouth013.png");</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2557,15 +3641,27 @@
       <c r="D89">
         <v>0</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
         <v>92</v>
       </c>
-      <c r="F89" t="str">
+      <c r="J89" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(88,7,0,0,"mouth014.png");</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(88,7,0,0,0,0,0,0,"mouth014.png");</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2578,15 +3674,27 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
         <v>93</v>
       </c>
-      <c r="F90" t="str">
+      <c r="J90" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(89,7,0,0,"mouth015.png");</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(89,7,0,0,0,0,0,0,"mouth015.png");</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2599,15 +3707,27 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
         <v>94</v>
       </c>
-      <c r="F91" t="str">
+      <c r="J91" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(90,7,0,0,"mouth016.png");</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(90,7,0,0,0,0,0,0,"mouth016.png");</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2620,15 +3740,27 @@
       <c r="D92">
         <v>0</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
         <v>95</v>
       </c>
-      <c r="F92" t="str">
+      <c r="J92" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(91,8,0,0,"hair001.png");</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(91,8,0,0,0,0,0,0,"hair001.png");</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2641,15 +3773,27 @@
       <c r="D93">
         <v>0</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
         <v>96</v>
       </c>
-      <c r="F93" t="str">
+      <c r="J93" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(92,8,0,0,"hair002.png");</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(92,8,0,0,0,0,0,0,"hair002.png");</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2662,15 +3806,27 @@
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
         <v>97</v>
       </c>
-      <c r="F94" t="str">
+      <c r="J94" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(93,8,0,0,"hair003.png");</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(93,8,0,0,0,0,0,0,"hair003.png");</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2683,15 +3839,27 @@
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
         <v>98</v>
       </c>
-      <c r="F95" t="str">
+      <c r="J95" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(94,8,0,0,"hair004.png");</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(94,8,0,0,0,0,0,0,"hair004.png");</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2704,15 +3872,27 @@
       <c r="D96">
         <v>0</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
         <v>99</v>
       </c>
-      <c r="F96" t="str">
+      <c r="J96" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(95,8,0,0,"hair005.png");</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(95,8,0,0,0,0,0,0,"hair005.png");</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2725,15 +3905,27 @@
       <c r="D97">
         <v>0</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
         <v>100</v>
       </c>
-      <c r="F97" t="str">
+      <c r="J97" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(96,8,0,0,"hair006.png");</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(96,8,0,0,0,0,0,0,"hair006.png");</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2746,15 +3938,27 @@
       <c r="D98">
         <v>0</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
         <v>101</v>
       </c>
-      <c r="F98" t="str">
+      <c r="J98" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(97,8,0,0,"hair007.png");</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(97,8,0,0,0,0,0,0,"hair007.png");</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2767,15 +3971,27 @@
       <c r="D99">
         <v>0</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
         <v>102</v>
       </c>
-      <c r="F99" t="str">
+      <c r="J99" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(98,8,0,0,"hair008.png");</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(98,8,0,0,0,0,0,0,"hair008.png");</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2788,15 +4004,27 @@
       <c r="D100">
         <v>0</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
         <v>103</v>
       </c>
-      <c r="F100" t="str">
+      <c r="J100" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(99,8,0,0,"hair009.png");</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(99,8,0,0,0,0,0,0,"hair009.png");</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2809,15 +4037,27 @@
       <c r="D101">
         <v>0</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
         <v>104</v>
       </c>
-      <c r="F101" t="str">
+      <c r="J101" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(100,8,0,0,"hair010.png");</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(100,8,0,0,0,0,0,0,"hair010.png");</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2830,12 +4070,24 @@
       <c r="D102">
         <v>0</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
         <v>105</v>
       </c>
-      <c r="F102" t="str">
+      <c r="J102" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND,TOTAL_CND,FILE_NAME)VALUES(101,8,0,0,"hair011.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(101,8,0,0,0,0,0,0,"hair011.png");</v>
       </c>
     </row>
   </sheetData>

--- a/設計書/アバター管理.xlsx
+++ b/設計書/アバター管理.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -720,7 +720,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -820,7 +820,7 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J66" si="0">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A3&amp;","&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","""&amp;I3&amp;""");"</f>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(2,0,0,0,0,0,0,0,"hair_back002.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(2,0,1,0,0,0,0,0,"hair_back002.png");</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(3,0,0,0,0,0,0,0,"hair_back003.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(3,0,0,0,1,0,0,0,"hair_back003.png");</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -886,7 +886,7 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(4,0,0,0,0,0,0,0,"hair_back004.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(4,0,0,0,0,100,0,0,"hair_back004.png");</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -912,14 +912,14 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(5,0,0,0,0,0,0,0,"hair_back005.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(5,0,0,0,0,0,0,100,"hair_back005.png");</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -952,7 +952,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(6,0,0,0,0,0,0,0,"hair_back006.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(6,0,0,0,0,50,0,0,"hair_back006.png");</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -978,14 +978,14 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(7,0,0,0,0,0,0,0,"hair_back007.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(7,0,0,0,0,0,0,50,"hair_back007.png");</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">

--- a/設計書/アバター管理.xlsx
+++ b/設計書/アバター管理.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="108">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -339,6 +339,14 @@
   </si>
   <si>
     <t>hair011.png</t>
+  </si>
+  <si>
+    <t>default.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default.png</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -717,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105:J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -819,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="0">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A3&amp;","&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","""&amp;I3&amp;""");"</f>
+        <f t="shared" ref="J3:J67" si="0">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A3&amp;","&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","""&amp;I3&amp;""");"</f>
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(2,0,1,0,0,0,0,0,"hair_back002.png");</v>
       </c>
     </row>
@@ -1092,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1113,11 +1121,11 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(11,1,0,0,0,0,0,0,"body001.png");</v>
+        <f t="shared" ref="J12" si="1">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A12&amp;","&amp;B12&amp;","&amp;C12&amp;","&amp;D12&amp;","&amp;E12&amp;","&amp;F12&amp;","&amp;G12&amp;","&amp;H12&amp;","""&amp;I12&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(11,0,0,0,0,0,0,0,"default.png");</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,11 +1154,11 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(12,1,0,0,0,0,0,0,"body002.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(12,1,0,0,0,0,0,0,"body001.png");</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1179,11 +1187,11 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(13,1,0,0,0,0,0,0,"body003.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(13,1,0,0,0,0,0,0,"body002.png");</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1212,11 +1220,11 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(14,1,0,0,0,0,0,0,"body004.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(14,1,0,0,0,0,0,0,"body003.png");</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1245,11 +1253,11 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(15,1,0,0,0,0,0,0,"body005.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(15,1,0,0,0,0,0,0,"body004.png");</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1278,11 +1286,11 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(16,1,0,0,0,0,0,0,"body006.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(16,1,0,0,0,0,0,0,"body005.png");</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1311,11 +1319,11 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(17,1,0,0,0,0,0,0,"body007.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(17,1,0,0,0,0,0,0,"body006.png");</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1344,11 +1352,11 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(18,1,0,0,0,0,0,0,"body008.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(18,1,0,0,0,0,0,0,"body007.png");</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1377,11 +1385,11 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(19,1,0,0,0,0,0,0,"body009.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(19,1,0,0,0,0,0,0,"body008.png");</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1410,11 +1418,11 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(20,1,0,0,0,0,0,0,"body010.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(20,1,0,0,0,0,0,0,"body009.png");</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1422,7 +1430,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1443,11 +1451,11 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(21,2,0,0,0,0,0,0,"faceline001.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(21,1,0,0,0,0,0,0,"body010.png");</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1476,11 +1484,11 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(22,2,0,0,0,0,0,0,"faceline002.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(22,2,0,0,0,0,0,0,"faceline001.png");</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1509,11 +1517,11 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(23,2,0,0,0,0,0,0,"faceline003.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(23,2,0,0,0,0,0,0,"faceline002.png");</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1542,11 +1550,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(24,2,0,0,0,0,0,0,"faceline004.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(24,2,0,0,0,0,0,0,"faceline003.png");</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1575,11 +1583,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(25,2,0,0,0,0,0,0,"faceline005.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(25,2,0,0,0,0,0,0,"faceline004.png");</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1608,11 +1616,11 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(26,2,0,0,0,0,0,0,"faceline006.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(26,2,0,0,0,0,0,0,"faceline005.png");</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1641,11 +1649,11 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(27,2,0,0,0,0,0,0,"faceline007.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(27,2,0,0,0,0,0,0,"faceline006.png");</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1674,11 +1682,11 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(28,2,0,0,0,0,0,0,"faceline008.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(28,2,0,0,0,0,0,0,"faceline007.png");</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1707,11 +1715,11 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(29,2,0,0,0,0,0,0,"faceline009.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(29,2,0,0,0,0,0,0,"faceline008.png");</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1740,11 +1748,11 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(30,2,0,0,0,0,0,0,"faceline010.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(30,2,0,0,0,0,0,0,"faceline009.png");</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1773,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(31,2,0,0,0,0,0,0,"faceline011.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(31,2,0,0,0,0,0,0,"faceline010.png");</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1806,11 +1814,11 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(32,2,0,0,0,0,0,0,"faceline012.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(32,2,0,0,0,0,0,0,"faceline011.png");</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1818,7 +1826,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1839,11 +1847,11 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(33,3,0,0,0,0,0,0,"ear001.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(33,2,0,0,0,0,0,0,"faceline012.png");</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1872,11 +1880,11 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(34,3,0,0,0,0,0,0,"ear002.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(34,3,0,0,0,0,0,0,"ear001.png");</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1905,11 +1913,11 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(35,3,0,0,0,0,0,0,"ear003.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(35,3,0,0,0,0,0,0,"ear002.png");</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1938,11 +1946,11 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(36,3,0,0,0,0,0,0,"ear004.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(36,3,0,0,0,0,0,0,"ear003.png");</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1950,7 +1958,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1971,11 +1979,11 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(37,4,0,0,0,0,0,0,"eyebrows001.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(37,3,0,0,0,0,0,0,"ear004.png");</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2004,11 +2012,11 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(38,4,0,0,0,0,0,0,"eyebrows002.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(38,4,0,0,0,0,0,0,"eyebrows001.png");</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2037,11 +2045,11 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(39,4,0,0,0,0,0,0,"eyebrows003.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(39,4,0,0,0,0,0,0,"eyebrows002.png");</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2070,11 +2078,11 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(40,4,0,0,0,0,0,0,"eyebrows004.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(40,4,0,0,0,0,0,0,"eyebrows003.png");</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2103,11 +2111,11 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(41,4,0,0,0,0,0,0,"eyebrows005.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(41,4,0,0,0,0,0,0,"eyebrows004.png");</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2136,11 +2144,11 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(42,4,0,0,0,0,0,0,"eyebrows006.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(42,4,0,0,0,0,0,0,"eyebrows005.png");</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2169,11 +2177,11 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(43,4,0,0,0,0,0,0,"eyebrows007.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(43,4,0,0,0,0,0,0,"eyebrows006.png");</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2202,11 +2210,11 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(44,4,0,0,0,0,0,0,"eyebrows008.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(44,4,0,0,0,0,0,0,"eyebrows007.png");</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2235,11 +2243,11 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(45,4,0,0,0,0,0,0,"eyebrows009.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(45,4,0,0,0,0,0,0,"eyebrows008.png");</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2247,7 +2255,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2268,11 +2276,11 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(46,5,0,0,0,0,0,0,"eyes001.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(46,4,0,0,0,0,0,0,"eyebrows009.png");</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2301,11 +2309,11 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(47,5,0,0,0,0,0,0,"eyes002.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(47,5,0,0,0,0,0,0,"eyes001.png");</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2334,11 +2342,11 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(48,5,0,0,0,0,0,0,"eyes003.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(48,5,0,0,0,0,0,0,"eyes002.png");</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2367,11 +2375,11 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(49,5,0,0,0,0,0,0,"eyes004.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(49,5,0,0,0,0,0,0,"eyes003.png");</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2400,11 +2408,11 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(50,5,0,0,0,0,0,0,"eyes005.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(50,5,0,0,0,0,0,0,"eyes004.png");</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2433,11 +2441,11 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(51,5,0,0,0,0,0,0,"eyes006.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(51,5,0,0,0,0,0,0,"eyes005.png");</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2466,11 +2474,11 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(52,5,0,0,0,0,0,0,"eyes007.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(52,5,0,0,0,0,0,0,"eyes006.png");</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2499,11 +2507,11 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(53,5,0,0,0,0,0,0,"eyes008.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(53,5,0,0,0,0,0,0,"eyes007.png");</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2532,11 +2540,11 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(54,5,0,0,0,0,0,0,"eyes009.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(54,5,0,0,0,0,0,0,"eyes008.png");</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2565,11 +2573,11 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(55,5,0,0,0,0,0,0,"eyes010.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(55,5,0,0,0,0,0,0,"eyes009.png");</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2598,11 +2606,11 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(56,5,0,0,0,0,0,0,"eyes011.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(56,5,0,0,0,0,0,0,"eyes010.png");</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2631,11 +2639,11 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(57,5,0,0,0,0,0,0,"eyes012.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(57,5,0,0,0,0,0,0,"eyes011.png");</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2664,11 +2672,11 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(58,5,0,0,0,0,0,0,"eyes013.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(58,5,0,0,0,0,0,0,"eyes012.png");</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2697,11 +2705,11 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(59,5,0,0,0,0,0,0,"eyes014.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(59,5,0,0,0,0,0,0,"eyes013.png");</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2730,11 +2738,11 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(60,5,0,0,0,0,0,0,"eyes015.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(60,5,0,0,0,0,0,0,"eyes014.png");</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -2763,11 +2771,11 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(61,5,0,0,0,0,0,0,"eyes016.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(61,5,0,0,0,0,0,0,"eyes015.png");</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2796,11 +2804,11 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(62,5,0,0,0,0,0,0,"eyes017.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(62,5,0,0,0,0,0,0,"eyes016.png");</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -2829,11 +2837,11 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(63,5,0,0,0,0,0,0,"eyes018.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(63,5,0,0,0,0,0,0,"eyes017.png");</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -2862,11 +2870,11 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(64,5,0,0,0,0,0,0,"eyes019.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(64,5,0,0,0,0,0,0,"eyes018.png");</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -2895,11 +2903,11 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(65,5,0,0,0,0,0,0,"eyes020.png");</v>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(65,5,0,0,0,0,0,0,"eyes019.png");</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -2907,7 +2915,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2928,11 +2936,11 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67:J102" si="1">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A67&amp;","&amp;B67&amp;","&amp;C67&amp;","&amp;D67&amp;","&amp;E67&amp;","&amp;F67&amp;","&amp;G67&amp;","&amp;H67&amp;","""&amp;I67&amp;""");"</f>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(66,6,0,0,0,0,0,0,"nose001.png");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(66,5,0,0,0,0,0,0,"eyes020.png");</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -2961,11 +2969,11 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(67,6,0,0,0,0,0,0,"nose002.png");</v>
+        <f t="shared" ref="J68:J103" si="2">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A68&amp;","&amp;B68&amp;","&amp;C68&amp;","&amp;D68&amp;","&amp;E68&amp;","&amp;F68&amp;","&amp;G68&amp;","&amp;H68&amp;","""&amp;I68&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(67,6,0,0,0,0,0,0,"nose001.png");</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -2994,11 +3002,11 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(68,6,0,0,0,0,0,0,"nose003.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(68,6,0,0,0,0,0,0,"nose002.png");</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -3027,11 +3035,11 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(69,6,0,0,0,0,0,0,"nose004.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(69,6,0,0,0,0,0,0,"nose003.png");</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -3060,11 +3068,11 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(70,6,0,0,0,0,0,0,"nose005.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(70,6,0,0,0,0,0,0,"nose004.png");</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -3093,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(71,6,0,0,0,0,0,0,"nose006.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(71,6,0,0,0,0,0,0,"nose005.png");</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -3126,11 +3134,11 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(72,6,0,0,0,0,0,0,"nose007.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(72,6,0,0,0,0,0,0,"nose006.png");</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -3159,11 +3167,11 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(73,6,0,0,0,0,0,0,"nose008.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(73,6,0,0,0,0,0,0,"nose007.png");</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -3192,11 +3200,11 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(74,6,0,0,0,0,0,0,"nose009.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(74,6,0,0,0,0,0,0,"nose008.png");</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -3204,7 +3212,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3225,11 +3233,11 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(75,7,0,0,0,0,0,0,"mouth001.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(75,6,0,0,0,0,0,0,"nose009.png");</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -3258,11 +3266,11 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(76,7,0,0,0,0,0,0,"mouth002.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(76,7,0,0,0,0,0,0,"mouth001.png");</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -3291,11 +3299,11 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(77,7,0,0,0,0,0,0,"mouth003.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(77,7,0,0,0,0,0,0,"mouth002.png");</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -3324,11 +3332,11 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(78,7,0,0,0,0,0,0,"mouth004.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(78,7,0,0,0,0,0,0,"mouth003.png");</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -3357,11 +3365,11 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(79,7,0,0,0,0,0,0,"mouth005.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(79,7,0,0,0,0,0,0,"mouth004.png");</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -3390,11 +3398,11 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(80,7,0,0,0,0,0,0,"mouth006.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(80,7,0,0,0,0,0,0,"mouth005.png");</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -3423,11 +3431,11 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(81,7,0,0,0,0,0,0,"mouth007.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(81,7,0,0,0,0,0,0,"mouth006.png");</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -3456,11 +3464,11 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(82,7,0,0,0,0,0,0,"mouth008.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(82,7,0,0,0,0,0,0,"mouth007.png");</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -3489,11 +3497,11 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(83,7,0,0,0,0,0,0,"mouth009.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(83,7,0,0,0,0,0,0,"mouth008.png");</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -3522,11 +3530,11 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(84,7,0,0,0,0,0,0,"mouth010.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(84,7,0,0,0,0,0,0,"mouth009.png");</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -3555,11 +3563,11 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(85,7,0,0,0,0,0,0,"mouth011.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(85,7,0,0,0,0,0,0,"mouth010.png");</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -3588,11 +3596,11 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(86,7,0,0,0,0,0,0,"mouth012.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(86,7,0,0,0,0,0,0,"mouth011.png");</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -3621,11 +3629,11 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(87,7,0,0,0,0,0,0,"mouth013.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(87,7,0,0,0,0,0,0,"mouth012.png");</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -3654,11 +3662,11 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(88,7,0,0,0,0,0,0,"mouth014.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(88,7,0,0,0,0,0,0,"mouth013.png");</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -3687,11 +3695,11 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(89,7,0,0,0,0,0,0,"mouth015.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(89,7,0,0,0,0,0,0,"mouth014.png");</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -3720,11 +3728,11 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(90,7,0,0,0,0,0,0,"mouth016.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(90,7,0,0,0,0,0,0,"mouth015.png");</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -3732,7 +3740,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3753,11 +3761,11 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(91,8,0,0,0,0,0,0,"hair001.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(91,7,0,0,0,0,0,0,"mouth016.png");</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -3786,11 +3794,11 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(92,8,0,0,0,0,0,0,"hair002.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(92,8,0,0,0,0,0,0,"hair001.png");</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -3819,11 +3827,11 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J94" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(93,8,0,0,0,0,0,0,"hair003.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(93,8,0,0,0,0,0,0,"hair002.png");</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -3852,11 +3860,11 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(94,8,0,0,0,0,0,0,"hair004.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(94,8,0,0,0,0,0,0,"hair003.png");</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -3885,11 +3893,11 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(95,8,0,0,0,0,0,0,"hair005.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(95,8,0,0,0,0,0,0,"hair004.png");</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -3918,11 +3926,11 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J97" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(96,8,0,0,0,0,0,0,"hair006.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(96,8,0,0,0,0,0,0,"hair005.png");</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -3951,11 +3959,11 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J98" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(97,8,0,0,0,0,0,0,"hair007.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(97,8,0,0,0,0,0,0,"hair006.png");</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -3984,11 +3992,11 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(98,8,0,0,0,0,0,0,"hair008.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(98,8,0,0,0,0,0,0,"hair007.png");</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -4017,11 +4025,11 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J100" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(99,8,0,0,0,0,0,0,"hair009.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(99,8,0,0,0,0,0,0,"hair008.png");</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -4050,11 +4058,11 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J101" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(100,8,0,0,0,0,0,0,"hair010.png");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(100,8,0,0,0,0,0,0,"hair009.png");</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -4083,11 +4091,143 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
+        <v>104</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(101,8,0,0,0,0,0,0,"hair010.png");</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
         <v>105</v>
       </c>
-      <c r="J102" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(101,8,0,0,0,0,0,0,"hair011.png");</v>
+      <c r="J103" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(102,8,0,0,0,0,0,0,"hair011.png");</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>107</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" ref="J104" si="3">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A104&amp;","&amp;B104&amp;","&amp;C104&amp;","&amp;D104&amp;","&amp;E104&amp;","&amp;F104&amp;","&amp;G104&amp;","&amp;H104&amp;","""&amp;I104&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(103,8,0,0,0,0,0,0,"default.png");</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>107</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" ref="J105:J106" si="4">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A105&amp;","&amp;B105&amp;","&amp;C105&amp;","&amp;D105&amp;","&amp;E105&amp;","&amp;F105&amp;","&amp;G105&amp;","&amp;H105&amp;","""&amp;I105&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(104,9,0,0,0,0,0,0,"default.png");</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>107</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(105,10,0,0,0,0,0,0,"default.png");</v>
       </c>
     </row>
   </sheetData>

--- a/設計書/アバター管理.xlsx
+++ b/設計書/アバター管理.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nishino\git\AsoLearning\設計書\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="13416" windowHeight="6708"/>
+    <workbookView xWindow="90" yWindow="90" windowWidth="13410" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -346,6 +351,10 @@
   </si>
   <si>
     <t>default.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hair012.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -434,12 +443,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -481,7 +493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,7 +528,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,18 +737,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105:J106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -798,7 +810,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(1,0,0,0,0,0,0,0,"hair_back001.png");</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -806,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -828,10 +840,10 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J67" si="0">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A3&amp;","&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","""&amp;I3&amp;""");"</f>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(2,0,1,0,0,0,0,0,"hair_back002.png");</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(2,0,0,0,0,0,0,0,"hair_back002.png");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -845,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -861,10 +873,10 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(3,0,0,0,1,0,0,0,"hair_back003.png");</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(3,0,0,0,0,0,0,0,"hair_back003.png");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -881,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -894,10 +906,10 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(4,0,0,0,0,100,0,0,"hair_back004.png");</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(4,0,0,0,0,0,0,0,"hair_back004.png");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -920,17 +932,17 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(5,0,0,0,0,0,0,100,"hair_back005.png");</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(5,0,0,0,0,0,0,0,"hair_back005.png");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -947,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -960,10 +972,10 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(6,0,0,0,0,50,0,0,"hair_back006.png");</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(6,0,0,0,0,0,0,0,"hair_back006.png");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -986,17 +998,17 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(7,0,0,0,0,0,0,50,"hair_back007.png");</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(7,0,0,0,0,0,0,0,"hair_back007.png");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(8,0,0,0,0,0,0,0,"hair_back008.png");</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1062,7 +1074,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(9,0,0,0,0,0,0,0,"hair_back009.png");</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1095,7 +1107,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(10,0,0,0,0,0,0,0,"hair_back010.png");</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1128,7 +1140,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(11,0,0,0,0,0,0,0,"default.png");</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1161,7 +1173,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(12,1,0,0,0,0,0,0,"body001.png");</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1194,7 +1206,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(13,1,0,0,0,0,0,0,"body002.png");</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1227,7 +1239,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(14,1,0,0,0,0,0,0,"body003.png");</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1260,7 +1272,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(15,1,0,0,0,0,0,0,"body004.png");</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1293,7 +1305,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(16,1,0,0,0,0,0,0,"body005.png");</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1326,7 +1338,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(17,1,0,0,0,0,0,0,"body006.png");</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1359,7 +1371,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(18,1,0,0,0,0,0,0,"body007.png");</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1392,7 +1404,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(19,1,0,0,0,0,0,0,"body008.png");</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1425,7 +1437,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(20,1,0,0,0,0,0,0,"body009.png");</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1458,7 +1470,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(21,1,0,0,0,0,0,0,"body010.png");</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1491,7 +1503,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(22,2,0,0,0,0,0,0,"faceline001.png");</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1524,7 +1536,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(23,2,0,0,0,0,0,0,"faceline002.png");</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1557,7 +1569,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(24,2,0,0,0,0,0,0,"faceline003.png");</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1590,7 +1602,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(25,2,0,0,0,0,0,0,"faceline004.png");</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1623,7 +1635,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(26,2,0,0,0,0,0,0,"faceline005.png");</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1656,7 +1668,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(27,2,0,0,0,0,0,0,"faceline006.png");</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1689,7 +1701,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(28,2,0,0,0,0,0,0,"faceline007.png");</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1722,7 +1734,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(29,2,0,0,0,0,0,0,"faceline008.png");</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1755,7 +1767,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(30,2,0,0,0,0,0,0,"faceline009.png");</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1788,7 +1800,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(31,2,0,0,0,0,0,0,"faceline010.png");</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1821,7 +1833,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(32,2,0,0,0,0,0,0,"faceline011.png");</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1854,7 +1866,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(33,2,0,0,0,0,0,0,"faceline012.png");</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1887,7 +1899,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(34,3,0,0,0,0,0,0,"ear001.png");</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1920,7 +1932,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(35,3,0,0,0,0,0,0,"ear002.png");</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1953,7 +1965,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(36,3,0,0,0,0,0,0,"ear003.png");</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1986,7 +1998,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(37,3,0,0,0,0,0,0,"ear004.png");</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2019,7 +2031,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(38,4,0,0,0,0,0,0,"eyebrows001.png");</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2052,7 +2064,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(39,4,0,0,0,0,0,0,"eyebrows002.png");</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2085,7 +2097,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(40,4,0,0,0,0,0,0,"eyebrows003.png");</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2118,7 +2130,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(41,4,0,0,0,0,0,0,"eyebrows004.png");</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2151,7 +2163,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(42,4,0,0,0,0,0,0,"eyebrows005.png");</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2184,7 +2196,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(43,4,0,0,0,0,0,0,"eyebrows006.png");</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2217,7 +2229,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(44,4,0,0,0,0,0,0,"eyebrows007.png");</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2250,7 +2262,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(45,4,0,0,0,0,0,0,"eyebrows008.png");</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2283,7 +2295,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(46,4,0,0,0,0,0,0,"eyebrows009.png");</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(47,5,0,0,0,0,0,0,"eyes001.png");</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2349,7 +2361,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(48,5,0,0,0,0,0,0,"eyes002.png");</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2382,7 +2394,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(49,5,0,0,0,0,0,0,"eyes003.png");</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2415,7 +2427,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(50,5,0,0,0,0,0,0,"eyes004.png");</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2448,7 +2460,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(51,5,0,0,0,0,0,0,"eyes005.png");</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2481,7 +2493,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(52,5,0,0,0,0,0,0,"eyes006.png");</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2514,7 +2526,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(53,5,0,0,0,0,0,0,"eyes007.png");</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2547,7 +2559,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(54,5,0,0,0,0,0,0,"eyes008.png");</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2580,7 +2592,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(55,5,0,0,0,0,0,0,"eyes009.png");</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2613,7 +2625,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(56,5,0,0,0,0,0,0,"eyes010.png");</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2646,7 +2658,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(57,5,0,0,0,0,0,0,"eyes011.png");</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2679,7 +2691,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(58,5,0,0,0,0,0,0,"eyes012.png");</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2712,7 +2724,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(59,5,0,0,0,0,0,0,"eyes013.png");</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(60,5,0,0,0,0,0,0,"eyes014.png");</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2778,7 +2790,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(61,5,0,0,0,0,0,0,"eyes015.png");</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2811,7 +2823,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(62,5,0,0,0,0,0,0,"eyes016.png");</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2844,7 +2856,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(63,5,0,0,0,0,0,0,"eyes017.png");</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2877,7 +2889,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(64,5,0,0,0,0,0,0,"eyes018.png");</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2910,7 +2922,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(65,5,0,0,0,0,0,0,"eyes019.png");</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2943,7 +2955,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(66,5,0,0,0,0,0,0,"eyes020.png");</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2976,7 +2988,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(67,6,0,0,0,0,0,0,"nose001.png");</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3009,7 +3021,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(68,6,0,0,0,0,0,0,"nose002.png");</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3042,7 +3054,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(69,6,0,0,0,0,0,0,"nose003.png");</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3075,7 +3087,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(70,6,0,0,0,0,0,0,"nose004.png");</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3108,7 +3120,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(71,6,0,0,0,0,0,0,"nose005.png");</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3141,7 +3153,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(72,6,0,0,0,0,0,0,"nose006.png");</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3174,7 +3186,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(73,6,0,0,0,0,0,0,"nose007.png");</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3207,7 +3219,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(74,6,0,0,0,0,0,0,"nose008.png");</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3240,7 +3252,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(75,6,0,0,0,0,0,0,"nose009.png");</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3273,7 +3285,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(76,7,0,0,0,0,0,0,"mouth001.png");</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3306,7 +3318,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(77,7,0,0,0,0,0,0,"mouth002.png");</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3339,7 +3351,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(78,7,0,0,0,0,0,0,"mouth003.png");</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3372,7 +3384,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(79,7,0,0,0,0,0,0,"mouth004.png");</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3405,7 +3417,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(80,7,0,0,0,0,0,0,"mouth005.png");</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3438,7 +3450,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(81,7,0,0,0,0,0,0,"mouth006.png");</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3471,7 +3483,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(82,7,0,0,0,0,0,0,"mouth007.png");</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3504,7 +3516,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(83,7,0,0,0,0,0,0,"mouth008.png");</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3537,7 +3549,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(84,7,0,0,0,0,0,0,"mouth009.png");</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3570,7 +3582,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(85,7,0,0,0,0,0,0,"mouth010.png");</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3603,7 +3615,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(86,7,0,0,0,0,0,0,"mouth011.png");</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3636,7 +3648,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(87,7,0,0,0,0,0,0,"mouth012.png");</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3669,7 +3681,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(88,7,0,0,0,0,0,0,"mouth013.png");</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3702,7 +3714,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(89,7,0,0,0,0,0,0,"mouth014.png");</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3735,7 +3747,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(90,7,0,0,0,0,0,0,"mouth015.png");</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3768,7 +3780,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(91,7,0,0,0,0,0,0,"mouth016.png");</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3801,7 +3813,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(92,8,0,0,0,0,0,0,"hair001.png");</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3834,7 +3846,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(93,8,0,0,0,0,0,0,"hair002.png");</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3867,7 +3879,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(94,8,0,0,0,0,0,0,"hair003.png");</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3900,7 +3912,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(95,8,0,0,0,0,0,0,"hair004.png");</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3933,7 +3945,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(96,8,0,0,0,0,0,0,"hair005.png");</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3966,7 +3978,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(97,8,0,0,0,0,0,0,"hair006.png");</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3999,7 +4011,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(98,8,0,0,0,0,0,0,"hair007.png");</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4032,7 +4044,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(99,8,0,0,0,0,0,0,"hair008.png");</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4065,7 +4077,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(100,8,0,0,0,0,0,0,"hair009.png");</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4098,7 +4110,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(101,8,0,0,0,0,0,0,"hair010.png");</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4131,7 +4143,7 @@
         <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(102,8,0,0,0,0,0,0,"hair011.png");</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4157,19 +4169,19 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J104" t="str">
         <f t="shared" ref="J104" si="3">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A104&amp;","&amp;B104&amp;","&amp;C104&amp;","&amp;D104&amp;","&amp;E104&amp;","&amp;F104&amp;","&amp;G104&amp;","&amp;H104&amp;","""&amp;I104&amp;""");"</f>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(103,8,0,0,0,0,0,0,"default.png");</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(103,8,0,0,0,0,0,0,"hair012.png");</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4193,16 +4205,16 @@
         <v>107</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" ref="J105:J106" si="4">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A105&amp;","&amp;B105&amp;","&amp;C105&amp;","&amp;D105&amp;","&amp;E105&amp;","&amp;F105&amp;","&amp;G105&amp;","&amp;H105&amp;","""&amp;I105&amp;""");"</f>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(104,9,0,0,0,0,0,0,"default.png");</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J105" si="4">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A105&amp;","&amp;B105&amp;","&amp;C105&amp;","&amp;D105&amp;","&amp;E105&amp;","&amp;F105&amp;","&amp;G105&amp;","&amp;H105&amp;","""&amp;I105&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(104,8,0,0,0,0,0,0,"default.png");</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4226,8 +4238,41 @@
         <v>107</v>
       </c>
       <c r="J106" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(105,10,0,0,0,0,0,0,"default.png");</v>
+        <f t="shared" ref="J106:J107" si="5">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A106&amp;","&amp;B106&amp;","&amp;C106&amp;","&amp;D106&amp;","&amp;E106&amp;","&amp;F106&amp;","&amp;G106&amp;","&amp;H106&amp;","""&amp;I106&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(105,9,0,0,0,0,0,0,"default.png");</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>107</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(106,10,0,0,0,0,0,0,"default.png");</v>
       </c>
     </row>
   </sheetData>
@@ -4243,7 +4288,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4256,7 +4301,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/アバター管理.xlsx
+++ b/設計書/アバター管理.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="90" yWindow="90" windowWidth="13410" windowHeight="6705"/>
+    <workbookView xWindow="90" yWindow="90" windowWidth="13410" windowHeight="6705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ステージング・本番" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="120">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -355,6 +356,48 @@
   </si>
   <si>
     <t>hair012.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eyes021.png</t>
+  </si>
+  <si>
+    <t>faceline021.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path4182-9.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ans（E)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ans（N)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ans（H)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total（E)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total（N)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total（H)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eyebrows010.png</t>
+  </si>
+  <si>
+    <t>5778.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -739,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
@@ -4284,14 +4327,3713 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I120" sqref="I120"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="str">
+        <f>"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A2&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2&amp;","""&amp;I2&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(1,0,0,0,0,0,0,0,"hair_back001.png");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J68" si="0">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A3&amp;","&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","""&amp;I3&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(2,0,0,0,0,0,0,0,"hair_back002.png");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(3,0,5,0,0,0,0,0,"hair_back003.png");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(4,0,0,3,0,0,0,0,"hair_back004.png");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(5,0,10,5,0,0,0,0,"hair_back005.png");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(6,0,0,0,5,0,0,0,"hair_back006.png");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(7,0,20,10,0,0,0,0,"hair_back007.png");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(8,0,20,13,0,0,0,0,"hair_back008.png");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(9,0,20,15,0,0,0,0,"hair_back009.png");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(10,0,20,20,10,0,0,0,"hair_back010.png");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(11,0,0,0,0,0,0,0,"default.png");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(12,1,0,0,0,0,0,0,"body001.png");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(13,1,0,0,0,0,0,0,"body002.png");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(14,1,0,0,0,0,0,0,"body003.png");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(15,1,5,0,0,0,0,0,"body004.png");</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(16,1,0,3,0,0,0,0,"body005.png");</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(17,1,0,0,2,0,0,0,"body006.png");</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(18,1,10,0,0,0,0,0,"body007.png");</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(19,1,0,5,0,0,0,0,"body008.png");</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(20,1,0,0,5,0,0,0,"body009.png");</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(21,1,10,10,10,0,0,0,"body010.png");</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(22,2,0,0,0,0,0,0,"faceline001.png");</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(23,2,0,0,0,0,0,0,"faceline002.png");</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(24,2,0,0,0,0,0,0,"faceline003.png");</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(25,2,0,0,0,0,0,0,"faceline004.png");</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(26,2,0,0,0,0,0,0,"faceline005.png");</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(27,2,0,0,0,0,0,0,"faceline006.png");</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(28,2,0,0,0,0,0,0,"faceline007.png");</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(29,2,0,0,0,0,0,0,"faceline008.png");</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(30,2,5,0,0,0,0,0,"faceline009.png");</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(31,2,10,0,0,0,0,0,"faceline010.png");</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(32,2,0,5,0,0,0,0,"faceline011.png");</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(33,2,0,0,5,0,0,0,"faceline012.png");</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(34,3,0,0,0,0,0,0,"ear001.png");</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(35,3,0,0,0,0,0,0,"ear002.png");</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(36,3,5,0,0,0,0,0,"ear003.png");</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(37,3,0,5,0,0,0,0,"ear004.png");</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(38,4,0,0,0,0,0,0,"eyebrows001.png");</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(39,4,0,0,0,0,0,0,"eyebrows002.png");</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(40,4,0,0,0,0,0,0,"eyebrows003.png");</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(41,4,0,0,0,0,0,0,"eyebrows004.png");</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(42,4,0,0,0,0,0,0,"eyebrows005.png");</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(43,4,0,0,0,0,0,0,"eyebrows006.png");</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(44,4,5,5,5,0,0,0,"eyebrows007.png");</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(45,4,15,0,0,0,0,0,"eyebrows008.png");</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(46,4,0,10,0,0,0,0,"eyebrows009.png");</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>118</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" ref="J48" si="1">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A48&amp;","&amp;B48&amp;","&amp;C48&amp;","&amp;D48&amp;","&amp;E48&amp;","&amp;F48&amp;","&amp;G48&amp;","&amp;H48&amp;","""&amp;I48&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(47,4,0,0,5,0,0,0,"eyebrows010.png");</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>50</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(48,5,0,0,0,0,0,0,"eyes001.png");</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(49,5,0,0,0,0,0,0,"eyes002.png");</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(50,5,0,0,0,0,0,0,"eyes003.png");</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(51,5,0,0,0,0,0,0,"eyes004.png");</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>54</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(52,5,0,0,0,0,0,0,"eyes005.png");</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(53,5,5,0,0,0,0,0,"eyes006.png");</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(54,5,0,3,0,0,0,0,"eyes007.png");</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>57</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(55,5,10,3,0,0,0,0,"eyes008.png");</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(56,5,10,5,0,0,0,0,"eyes009.png");</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(57,5,20,0,0,0,0,0,"eyes010.png");</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>60</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(58,5,0,0,5,0,0,0,"eyes011.png");</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1000</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>61</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(59,5,0,0,0,1000,0,0,"eyes012.png");</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>62</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(60,5,0,8,0,0,0,0,"eyes013.png");</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>63</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(61,5,0,0,7,0,0,0,"eyes014.png");</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>25</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>64</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(62,5,25,0,0,0,0,0,"eyes015.png");</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>50</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>65</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(63,5,50,0,0,0,0,0,"eyes016.png");</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>50</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>66</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(64,5,50,0,0,0,0,0,"eyes017.png");</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>50</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>67</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(65,5,50,0,0,0,0,0,"eyes018.png");</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>68</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(66,5,0,15,0,0,0,0,"eyes019.png");</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>69</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(67,5,0,0,5,0,0,0,"eyes020.png");</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>109</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" ref="J69:J71" si="2">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A69&amp;","&amp;B69&amp;","&amp;C69&amp;","&amp;D69&amp;","&amp;E69&amp;","&amp;F69&amp;","&amp;G69&amp;","&amp;H69&amp;","""&amp;I69&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(68,5,10,10,10,0,0,0,"eyes021.png");</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>110</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(69,5,30,10,0,0,0,0,"faceline021.png");</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>50</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>111</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(70,5,50,0,0,0,0,0,"path4182-9.png");</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>70</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" ref="J72:J112" si="3">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A72&amp;","&amp;B72&amp;","&amp;C72&amp;","&amp;D72&amp;","&amp;E72&amp;","&amp;F72&amp;","&amp;G72&amp;","&amp;H72&amp;","""&amp;I72&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(71,6,0,0,0,0,0,0,"nose001.png");</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>71</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(72,6,0,0,0,0,0,0,"nose002.png");</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>72</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(73,6,0,0,0,0,0,0,"nose003.png");</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>73</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(74,6,0,0,0,0,0,0,"nose004.png");</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(75,6,0,0,0,0,0,0,"nose005.png");</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(76,6,5,0,0,0,0,0,"nose006.png");</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>76</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(77,6,0,5,0,0,0,0,"nose007.png");</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>77</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(78,6,0,0,2,0,0,0,"nose008.png");</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>78</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(79,6,10,0,0,0,0,0,"nose009.png");</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>79</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(80,7,0,0,0,0,0,0,"mouth001.png");</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>80</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(81,7,0,0,0,0,0,0,"mouth002.png");</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>81</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(82,7,0,0,0,0,0,0,"mouth003.png");</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>82</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(83,7,0,0,0,0,0,0,"mouth004.png");</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>83</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(84,7,0,0,0,0,0,0,"mouth005.png");</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(85,7,0,0,0,0,0,0,"mouth006.png");</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>85</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(86,7,0,5,0,0,0,0,"mouth007.png");</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>86</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(87,7,0,5,0,0,0,0,"mouth008.png");</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>87</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(88,7,10,0,0,0,0,0,"mouth009.png");</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>88</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(89,7,10,0,0,0,0,0,"mouth010.png");</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>89</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(90,7,10,5,1,0,0,0,"mouth011.png");</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>90</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(91,7,20,0,0,0,0,0,"mouth012.png");</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>91</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(92,7,20,0,0,0,0,0,"mouth013.png");</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>92</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(93,7,0,10,0,0,0,0,"mouth014.png");</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>30</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>93</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(94,7,30,0,0,0,0,0,"mouth015.png");</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>50</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>15</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>94</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(95,7,50,20,15,0,0,0,"mouth016.png");</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>95</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(96,8,0,0,0,0,0,0,"hair001.png");</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>96</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(97,8,0,0,0,0,0,0,"hair002.png");</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>97</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(98,8,0,0,0,0,0,0,"hair003.png");</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>98</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(99,8,5,0,0,0,0,0,"hair004.png");</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>99</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(100,8,0,5,0,0,0,0,"hair005.png");</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>100</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(101,8,0,0,0,0,0,0,"hair006.png");</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>101</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(102,8,0,0,0,0,0,0,"hair007.png");</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>102</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(103,8,10,0,0,0,0,0,"hair008.png");</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>103</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(104,8,0,0,0,0,0,0,"hair009.png");</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>104</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(105,8,0,0,0,0,0,0,"hair010.png");</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>105</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(106,8,20,10,0,0,0,0,"hair011.png");</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>108</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(107,8,20,10,0,0,0,0,"hair012.png");</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>30</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>50</v>
+      </c>
+      <c r="I109" t="s">
+        <v>119</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" ref="J109" si="4">"INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES("&amp;A109&amp;","&amp;B109&amp;","&amp;C109&amp;","&amp;D109&amp;","&amp;E109&amp;","&amp;F109&amp;","&amp;G109&amp;","&amp;H109&amp;","""&amp;I109&amp;""");"</f>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(108,8,30,10,0,0,0,50,"5778.png");</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>107</v>
+      </c>
+      <c r="J110" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(109,8,0,0,0,0,0,0,"default.png");</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>107</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(110,9,0,0,0,0,0,0,"default.png");</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>107</v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AVATAR_MASTER(AVATAR_ID,KIND,ANS_COND_EASY,ANS_COND_NORMAL,ANS_COND_HARD,TOTAL_CND_EASY,TOTAL_CND_NORMAL,TOTAL_CND_HARD,FILE_NAME)VALUES(111,10,0,0,0,0,0,0,"default.png");</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4306,4 +8048,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>